--- a/Team-Data/2012-13/3-31-2012-13.xlsx
+++ b/Team-Data/2012-13/3-31-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -753,7 +820,7 @@
         <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-31-2012-13</t>
+          <t>2013-03-31</t>
         </is>
       </c>
     </row>
@@ -848,37 +915,37 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" t="n">
         <v>38</v>
       </c>
       <c r="F3" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" t="n">
-        <v>0.521</v>
+        <v>0.528</v>
       </c>
       <c r="H3" t="n">
         <v>49.1</v>
       </c>
       <c r="I3" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J3" t="n">
-        <v>79.59999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="K3" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L3" t="n">
         <v>6.1</v>
       </c>
       <c r="M3" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="N3" t="n">
-        <v>0.356</v>
+        <v>0.358</v>
       </c>
       <c r="O3" t="n">
         <v>16.6</v>
@@ -899,19 +966,19 @@
         <v>39.6</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="V3" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W3" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X3" t="n">
         <v>4.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z3" t="n">
         <v>21.2</v>
@@ -920,13 +987,13 @@
         <v>19.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>14</v>
@@ -941,10 +1008,10 @@
         <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK3" t="n">
         <v>7</v>
@@ -953,19 +1020,19 @@
         <v>24</v>
       </c>
       <c r="AM3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP3" t="n">
         <v>19</v>
       </c>
       <c r="AQ3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR3" t="n">
         <v>29</v>
@@ -977,19 +1044,19 @@
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX3" t="n">
         <v>22</v>
       </c>
       <c r="AY3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>27</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-31-2012-13</t>
+          <t>2013-03-31</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>1.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1120,13 +1187,13 @@
         <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
         <v>27</v>
       </c>
       <c r="AJ4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK4" t="n">
         <v>17</v>
@@ -1141,7 +1208,7 @@
         <v>17</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
         <v>7</v>
@@ -1150,7 +1217,7 @@
         <v>23</v>
       </c>
       <c r="AR4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS4" t="n">
         <v>21</v>
@@ -1180,7 +1247,7 @@
         <v>6</v>
       </c>
       <c r="BB4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-31-2012-13</t>
+          <t>2013-03-31</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-9.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1317,7 +1384,7 @@
         <v>26</v>
       </c>
       <c r="AM5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN5" t="n">
         <v>27</v>
@@ -1347,7 +1414,7 @@
         <v>5</v>
       </c>
       <c r="AW5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-31-2012-13</t>
+          <t>2013-03-31</t>
         </is>
       </c>
     </row>
@@ -1394,46 +1461,46 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="n">
         <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>0.556</v>
+        <v>0.549</v>
       </c>
       <c r="H6" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="J6" t="n">
         <v>81.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L6" t="n">
         <v>5.1</v>
       </c>
       <c r="M6" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="N6" t="n">
         <v>0.345</v>
       </c>
       <c r="O6" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P6" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.777</v>
+        <v>0.78</v>
       </c>
       <c r="R6" t="n">
         <v>12.8</v>
@@ -1442,13 +1509,13 @@
         <v>30.6</v>
       </c>
       <c r="T6" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U6" t="n">
         <v>23.1</v>
       </c>
       <c r="V6" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W6" t="n">
         <v>7.3</v>
@@ -1463,7 +1530,7 @@
         <v>19.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB6" t="n">
         <v>93</v>
@@ -1472,22 +1539,22 @@
         <v>0.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
         <v>15</v>
       </c>
       <c r="AI6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ6" t="n">
         <v>14</v>
@@ -1505,22 +1572,22 @@
         <v>24</v>
       </c>
       <c r="AO6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AQ6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS6" t="n">
         <v>14</v>
       </c>
       <c r="AT6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU6" t="n">
         <v>5</v>
@@ -1529,7 +1596,7 @@
         <v>12</v>
       </c>
       <c r="AW6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX6" t="n">
         <v>11</v>
@@ -1544,7 +1611,7 @@
         <v>18</v>
       </c>
       <c r="BB6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC6" t="n">
         <v>14</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-31-2012-13</t>
+          <t>2013-03-31</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" t="n">
         <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" t="n">
-        <v>0.306</v>
+        <v>0.31</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
@@ -1606,25 +1673,25 @@
         <v>19.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O7" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P7" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q7" t="n">
         <v>0.755</v>
       </c>
       <c r="R7" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S7" t="n">
         <v>28.3</v>
       </c>
       <c r="T7" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="U7" t="n">
         <v>20.6</v>
@@ -1639,7 +1706,7 @@
         <v>3.9</v>
       </c>
       <c r="Y7" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Z7" t="n">
         <v>21.2</v>
@@ -1648,13 +1715,13 @@
         <v>20</v>
       </c>
       <c r="AB7" t="n">
-        <v>96.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.5</v>
+        <v>-4.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
@@ -1687,16 +1754,16 @@
         <v>22</v>
       </c>
       <c r="AO7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ7" t="n">
         <v>17</v>
       </c>
       <c r="AR7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS7" t="n">
         <v>30</v>
@@ -1711,7 +1778,7 @@
         <v>7</v>
       </c>
       <c r="AW7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX7" t="n">
         <v>29</v>
@@ -1723,7 +1790,7 @@
         <v>26</v>
       </c>
       <c r="BA7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB7" t="n">
         <v>17</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-31-2012-13</t>
+          <t>2013-03-31</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
@@ -1872,7 +1939,7 @@
         <v>16</v>
       </c>
       <c r="AP8" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ8" t="n">
         <v>2</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-31-2012-13</t>
+          <t>2013-03-31</t>
         </is>
       </c>
     </row>
@@ -2048,7 +2115,7 @@
         <v>19</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO9" t="n">
         <v>6</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-31-2012-13</t>
+          <t>2013-03-31</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" t="n">
         <v>24</v>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" t="n">
-        <v>0.324</v>
+        <v>0.329</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2140,10 +2207,10 @@
         <v>36</v>
       </c>
       <c r="J10" t="n">
-        <v>81</v>
+        <v>81.2</v>
       </c>
       <c r="K10" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L10" t="n">
         <v>6.2</v>
@@ -2152,7 +2219,7 @@
         <v>17.5</v>
       </c>
       <c r="N10" t="n">
-        <v>0.356</v>
+        <v>0.355</v>
       </c>
       <c r="O10" t="n">
         <v>15.7</v>
@@ -2164,10 +2231,10 @@
         <v>0.697</v>
       </c>
       <c r="R10" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S10" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T10" t="n">
         <v>42.3</v>
@@ -2194,13 +2261,13 @@
         <v>19.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>-5</v>
+        <v>-5.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
         <v>26</v>
@@ -2212,16 +2279,16 @@
         <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
         <v>24</v>
       </c>
       <c r="AJ10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK10" t="n">
         <v>22</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>21</v>
       </c>
       <c r="AL10" t="n">
         <v>23</v>
@@ -2230,13 +2297,13 @@
         <v>23</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO10" t="n">
         <v>23</v>
       </c>
       <c r="AP10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
@@ -2254,7 +2321,7 @@
         <v>23</v>
       </c>
       <c r="AV10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW10" t="n">
         <v>26</v>
@@ -2266,7 +2333,7 @@
         <v>20</v>
       </c>
       <c r="AZ10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA10" t="n">
         <v>16</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-31-2012-13</t>
+          <t>2013-03-31</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2461,7 @@
         <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
         <v>9</v>
@@ -2415,13 +2482,13 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP11" t="n">
         <v>17</v>
       </c>
       <c r="AQ11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR11" t="n">
         <v>23</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-31-2012-13</t>
+          <t>2013-03-31</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>3.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
         <v>12</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO12" t="n">
         <v>2</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-31-2012-13</t>
+          <t>2013-03-31</t>
         </is>
       </c>
     </row>
@@ -2755,7 +2822,7 @@
         <v>8</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH13" t="n">
         <v>12</v>
@@ -2776,10 +2843,10 @@
         <v>15</v>
       </c>
       <c r="AN13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-31-2012-13</t>
+          <t>2013-03-31</t>
         </is>
       </c>
     </row>
@@ -2958,10 +3025,10 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP14" t="n">
         <v>9</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-31-2012-13</t>
+          <t>2013-03-31</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-31-2012-13</t>
+          <t>2013-03-31</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE16" t="n">
         <v>5</v>
@@ -3325,13 +3392,13 @@
         <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR16" t="n">
         <v>2</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-31-2012-13</t>
+          <t>2013-03-31</t>
         </is>
       </c>
     </row>
@@ -3396,25 +3463,25 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" t="n">
         <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>0.795</v>
+        <v>0.792</v>
       </c>
       <c r="H17" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I17" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="J17" t="n">
-        <v>77.90000000000001</v>
+        <v>78</v>
       </c>
       <c r="K17" t="n">
         <v>0.497</v>
@@ -3426,16 +3493,16 @@
         <v>21.3</v>
       </c>
       <c r="N17" t="n">
-        <v>0.394</v>
+        <v>0.393</v>
       </c>
       <c r="O17" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P17" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R17" t="n">
         <v>8.199999999999999</v>
@@ -3444,7 +3511,7 @@
         <v>30</v>
       </c>
       <c r="T17" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="U17" t="n">
         <v>22.9</v>
@@ -3456,7 +3523,7 @@
         <v>8.9</v>
       </c>
       <c r="X17" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y17" t="n">
         <v>3.3</v>
@@ -3465,16 +3532,16 @@
         <v>18.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.3</v>
+        <v>103.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD17" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
@@ -3507,7 +3574,7 @@
         <v>2</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV17" t="n">
         <v>3</v>
@@ -3534,7 +3601,7 @@
         <v>3</v>
       </c>
       <c r="AX17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3543,7 +3610,7 @@
         <v>8</v>
       </c>
       <c r="BA17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB17" t="n">
         <v>5</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-31-2012-13</t>
+          <t>2013-03-31</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>18</v>
@@ -3668,7 +3735,7 @@
         <v>18</v>
       </c>
       <c r="AH18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI18" t="n">
         <v>6</v>
@@ -3692,7 +3759,7 @@
         <v>24</v>
       </c>
       <c r="AP18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ18" t="n">
         <v>20</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-31-2012-13</t>
+          <t>2013-03-31</t>
         </is>
       </c>
     </row>
@@ -3838,25 +3905,25 @@
         <v>-2.6</v>
       </c>
       <c r="AD19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI19" t="n">
         <v>26</v>
       </c>
-      <c r="AE19" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>25</v>
-      </c>
       <c r="AJ19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
@@ -3880,7 +3947,7 @@
         <v>24</v>
       </c>
       <c r="AR19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS19" t="n">
         <v>17</v>
@@ -3892,7 +3959,7 @@
         <v>17</v>
       </c>
       <c r="AV19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW19" t="n">
         <v>12</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-31-2012-13</t>
+          <t>2013-03-31</t>
         </is>
       </c>
     </row>
@@ -3942,52 +4009,52 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" t="n">
         <v>48</v>
       </c>
       <c r="G20" t="n">
-        <v>0.351</v>
+        <v>0.342</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J20" t="n">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="K20" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L20" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M20" t="n">
         <v>18.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.369</v>
+        <v>0.366</v>
       </c>
       <c r="O20" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="P20" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.775</v>
+        <v>0.776</v>
       </c>
       <c r="R20" t="n">
         <v>11.7</v>
       </c>
       <c r="S20" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T20" t="n">
         <v>41.3</v>
@@ -4014,16 +4081,16 @@
         <v>18.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>94.2</v>
+        <v>94</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.3</v>
+        <v>-3.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF20" t="n">
         <v>25</v>
@@ -4050,7 +4117,7 @@
         <v>21</v>
       </c>
       <c r="AN20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO20" t="n">
         <v>26</v>
@@ -4095,7 +4162,7 @@
         <v>24</v>
       </c>
       <c r="BC20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-31-2012-13</t>
+          <t>2013-03-31</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F21" t="n">
         <v>26</v>
       </c>
       <c r="G21" t="n">
-        <v>0.639</v>
+        <v>0.634</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
@@ -4142,25 +4209,25 @@
         <v>36.1</v>
       </c>
       <c r="J21" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K21" t="n">
         <v>0.444</v>
       </c>
       <c r="L21" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="M21" t="n">
         <v>28.7</v>
       </c>
       <c r="N21" t="n">
-        <v>0.372</v>
+        <v>0.37</v>
       </c>
       <c r="O21" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P21" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q21" t="n">
         <v>0.76</v>
@@ -4193,16 +4260,16 @@
         <v>20</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE21" t="n">
         <v>8</v>
@@ -4211,7 +4278,7 @@
         <v>7</v>
       </c>
       <c r="AG21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH21" t="n">
         <v>30</v>
@@ -4235,7 +4302,7 @@
         <v>7</v>
       </c>
       <c r="AO21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP21" t="n">
         <v>16</v>
@@ -4244,7 +4311,7 @@
         <v>14</v>
       </c>
       <c r="AR21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS21" t="n">
         <v>24</v>
@@ -4259,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-31-2012-13</t>
+          <t>2013-03-31</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-31-2012-13</t>
+          <t>2013-03-31</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4684,7 @@
         <v>15</v>
       </c>
       <c r="AU23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV23" t="n">
         <v>11</v>
@@ -4632,7 +4699,7 @@
         <v>18</v>
       </c>
       <c r="AZ23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-31-2012-13</t>
+          <t>2013-03-31</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-3.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
@@ -4805,7 +4872,7 @@
         <v>2</v>
       </c>
       <c r="AW24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX24" t="n">
         <v>17</v>
@@ -4820,10 +4887,10 @@
         <v>30</v>
       </c>
       <c r="BB24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-31-2012-13</t>
+          <t>2013-03-31</t>
         </is>
       </c>
     </row>
@@ -4942,7 +5009,7 @@
         <v>27</v>
       </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI25" t="n">
         <v>15</v>
@@ -4957,7 +5024,7 @@
         <v>27</v>
       </c>
       <c r="AM25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN25" t="n">
         <v>29</v>
@@ -4990,7 +5057,7 @@
         <v>15</v>
       </c>
       <c r="AX25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY25" t="n">
         <v>17</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-31-2012-13</t>
+          <t>2013-03-31</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -5124,13 +5191,13 @@
         <v>19</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK26" t="n">
         <v>16</v>
@@ -5142,7 +5209,7 @@
         <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO26" t="n">
         <v>22</v>
@@ -5154,7 +5221,7 @@
         <v>9</v>
       </c>
       <c r="AR26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS26" t="n">
         <v>15</v>
@@ -5166,13 +5233,13 @@
         <v>19</v>
       </c>
       <c r="AV26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW26" t="n">
         <v>28</v>
       </c>
       <c r="AX26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY26" t="n">
         <v>6</v>
@@ -5181,7 +5248,7 @@
         <v>5</v>
       </c>
       <c r="BA26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB26" t="n">
         <v>14</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-31-2012-13</t>
+          <t>2013-03-31</t>
         </is>
       </c>
     </row>
@@ -5303,7 +5370,7 @@
         <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH27" t="n">
         <v>12</v>
@@ -5324,7 +5391,7 @@
         <v>11</v>
       </c>
       <c r="AN27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO27" t="n">
         <v>10</v>
@@ -5351,7 +5418,7 @@
         <v>16</v>
       </c>
       <c r="AW27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX27" t="n">
         <v>27</v>
@@ -5363,7 +5430,7 @@
         <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-31-2012-13</t>
+          <t>2013-03-31</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" t="n">
         <v>55</v>
       </c>
       <c r="F28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G28" t="n">
-        <v>0.753</v>
+        <v>0.764</v>
       </c>
       <c r="H28" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I28" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="J28" t="n">
         <v>81.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.486</v>
+        <v>0.487</v>
       </c>
       <c r="L28" t="n">
         <v>8.300000000000001</v>
@@ -5428,16 +5495,16 @@
         <v>21.6</v>
       </c>
       <c r="N28" t="n">
-        <v>0.382</v>
+        <v>0.384</v>
       </c>
       <c r="O28" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P28" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.79</v>
+        <v>0.793</v>
       </c>
       <c r="R28" t="n">
         <v>8</v>
@@ -5446,7 +5513,7 @@
         <v>32.9</v>
       </c>
       <c r="T28" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U28" t="n">
         <v>25.2</v>
@@ -5458,25 +5525,25 @@
         <v>8.5</v>
       </c>
       <c r="X28" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="AA28" t="n">
         <v>19.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>104</v>
+        <v>104.3</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5494,7 +5561,7 @@
         <v>2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5515,7 +5582,7 @@
         <v>18</v>
       </c>
       <c r="AQ28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5539,7 +5606,7 @@
         <v>10</v>
       </c>
       <c r="AY28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-31-2012-13</t>
+          <t>2013-03-31</t>
         </is>
       </c>
     </row>
@@ -5580,46 +5647,46 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E29" t="n">
         <v>27</v>
       </c>
       <c r="F29" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G29" t="n">
-        <v>0.37</v>
+        <v>0.375</v>
       </c>
       <c r="H29" t="n">
         <v>48.8</v>
       </c>
       <c r="I29" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J29" t="n">
         <v>82</v>
       </c>
       <c r="K29" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L29" t="n">
         <v>7.1</v>
       </c>
       <c r="M29" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="N29" t="n">
         <v>0.34</v>
       </c>
       <c r="O29" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P29" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.787</v>
+        <v>0.786</v>
       </c>
       <c r="R29" t="n">
         <v>10.9</v>
@@ -5637,7 +5704,7 @@
         <v>13.7</v>
       </c>
       <c r="W29" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X29" t="n">
         <v>4.7</v>
@@ -5646,19 +5713,19 @@
         <v>4.9</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AA29" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.3</v>
+        <v>-2.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
@@ -5676,10 +5743,10 @@
         <v>20</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL29" t="n">
         <v>14</v>
@@ -5688,10 +5755,10 @@
         <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP29" t="n">
         <v>15</v>
@@ -5727,7 +5794,7 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BB29" t="n">
         <v>16</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-31-2012-13</t>
+          <t>2013-03-31</t>
         </is>
       </c>
     </row>
@@ -5870,7 +5937,7 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO30" t="n">
         <v>7</v>
@@ -5909,7 +5976,7 @@
         <v>29</v>
       </c>
       <c r="BA30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB30" t="n">
         <v>13</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-31-2012-13</t>
+          <t>2013-03-31</t>
         </is>
       </c>
     </row>
@@ -5944,25 +6011,25 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F31" t="n">
         <v>46</v>
       </c>
       <c r="G31" t="n">
-        <v>0.37</v>
+        <v>0.361</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J31" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K31" t="n">
         <v>0.434</v>
@@ -5974,16 +6041,16 @@
         <v>18.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.364</v>
+        <v>0.362</v>
       </c>
       <c r="O31" t="n">
         <v>15.5</v>
       </c>
       <c r="P31" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.736</v>
+        <v>0.738</v>
       </c>
       <c r="R31" t="n">
         <v>10.9</v>
@@ -5998,10 +6065,10 @@
         <v>21.9</v>
       </c>
       <c r="V31" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W31" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X31" t="n">
         <v>4.5</v>
@@ -6013,25 +6080,25 @@
         <v>20.7</v>
       </c>
       <c r="AA31" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AB31" t="n">
-        <v>93.2</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-2.3</v>
+        <v>-2.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH31" t="n">
         <v>8</v>
@@ -6040,7 +6107,7 @@
         <v>28</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK31" t="n">
         <v>28</v>
@@ -6052,7 +6119,7 @@
         <v>20</v>
       </c>
       <c r="AN31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO31" t="n">
         <v>25</v>
@@ -6070,7 +6137,7 @@
         <v>7</v>
       </c>
       <c r="AT31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU31" t="n">
         <v>18</v>
@@ -6079,25 +6146,25 @@
         <v>27</v>
       </c>
       <c r="AW31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX31" t="n">
         <v>24</v>
       </c>
       <c r="AY31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ31" t="n">
         <v>21</v>
       </c>
       <c r="BA31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB31" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BC31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-31-2012-13</t>
+          <t>2013-03-31</t>
         </is>
       </c>
     </row>
